--- a/MainTop/03.07.2025 Таня Озон/print_sorted.xlsx
+++ b/MainTop/03.07.2025 Таня Озон/print_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\03.07.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62C7E21-A259-4185-948E-B9B5383DEC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89913A89-28B1-4BCF-A826-F2E4E0CFFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -843,16 +843,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="12" width="4" customWidth="1"/>
+    <col min="2" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
     <col min="13" max="13" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6356,6 +6357,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <f>SUM(B2:B125)</f>
+        <v>109</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ref="C126:L126" si="0">SUM(C2:C125)</f>
+        <v>86</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MainTop/03.07.2025 Таня Озон/print_sorted.xlsx
+++ b/MainTop/03.07.2025 Таня Озон/print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\03.07.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89913A89-28B1-4BCF-A826-F2E4E0CFFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CEA7CA-F42E-4998-BD71-03FCDB5402F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="N126" sqref="N126"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
         <v>48</v>
@@ -6355,48 +6355,6 @@
       </c>
       <c r="N125" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B126">
-        <f>SUM(B2:B125)</f>
-        <v>109</v>
-      </c>
-      <c r="C126">
-        <f t="shared" ref="C126:L126" si="0">SUM(C2:C125)</f>
-        <v>86</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="I126">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="0"/>
-        <v>121</v>
       </c>
     </row>
   </sheetData>
